--- a/data/pca/factorExposure/factorExposure_2015-05-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-05-19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,15 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +720,45 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01935492346487683</v>
+        <v>0.01168650440932421</v>
       </c>
       <c r="C2">
-        <v>0.02117749353732157</v>
+        <v>-0.0531478392901089</v>
       </c>
       <c r="D2">
-        <v>0.1086920268472316</v>
+        <v>-0.1289139421818138</v>
       </c>
       <c r="E2">
-        <v>-0.01077081605376693</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.02684448828895396</v>
+      </c>
+      <c r="F2">
+        <v>-0.0305480767327095</v>
+      </c>
+      <c r="G2">
+        <v>0.1151080350997868</v>
+      </c>
+      <c r="H2">
+        <v>-0.088414981459531</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +772,45 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04335063219289836</v>
+        <v>0.01910049878312538</v>
       </c>
       <c r="C4">
-        <v>0.07239188807988226</v>
+        <v>-0.1062567817572564</v>
       </c>
       <c r="D4">
-        <v>0.1274867047242292</v>
+        <v>-0.1321867915094038</v>
       </c>
       <c r="E4">
-        <v>-0.08369685857691611</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.01383822438432941</v>
+      </c>
+      <c r="F4">
+        <v>-0.08889994764608267</v>
+      </c>
+      <c r="G4">
+        <v>0.002187182519026415</v>
+      </c>
+      <c r="H4">
+        <v>-0.04513902210151452</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +824,305 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.02068404367321554</v>
+        <v>0.02774097889605243</v>
       </c>
       <c r="C6">
-        <v>0.01170515662781328</v>
+        <v>-0.03440077953454505</v>
       </c>
       <c r="D6">
-        <v>0.1412604907498244</v>
+        <v>-0.1236391638402566</v>
       </c>
       <c r="E6">
-        <v>-0.0370397594042659</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.06396536510354263</v>
+      </c>
+      <c r="F6">
+        <v>-0.04340941810662986</v>
+      </c>
+      <c r="G6">
+        <v>-0.01080932011448752</v>
+      </c>
+      <c r="H6">
+        <v>-0.03755935387306656</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.002256673056847601</v>
+        <v>0.008740853122232462</v>
       </c>
       <c r="C7">
-        <v>0.02364597246839872</v>
+        <v>-0.03813292847349865</v>
       </c>
       <c r="D7">
-        <v>0.1122837513732997</v>
+        <v>-0.09680542066387957</v>
       </c>
       <c r="E7">
-        <v>-0.003533820736086748</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.05620952435928644</v>
+      </c>
+      <c r="F7">
+        <v>-0.008548973908461689</v>
+      </c>
+      <c r="G7">
+        <v>-0.01722999027905665</v>
+      </c>
+      <c r="H7">
+        <v>-0.07835800230981503</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.004815418047272639</v>
+        <v>-0.008492806158352318</v>
       </c>
       <c r="C8">
-        <v>0.02593384571215535</v>
+        <v>-0.03545388041124223</v>
       </c>
       <c r="D8">
-        <v>0.07892614202609277</v>
+        <v>-0.07580690776545342</v>
       </c>
       <c r="E8">
-        <v>-0.02274461818948864</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.0404500725896736</v>
+      </c>
+      <c r="F8">
+        <v>-0.04891955590358891</v>
+      </c>
+      <c r="G8">
+        <v>0.0633458284706504</v>
+      </c>
+      <c r="H8">
+        <v>-0.009467618932870328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03505146023346048</v>
+        <v>0.0133732053478368</v>
       </c>
       <c r="C9">
-        <v>0.06193895423286871</v>
+        <v>-0.08821261006834089</v>
       </c>
       <c r="D9">
-        <v>0.1294755770573681</v>
+        <v>-0.1141010612610616</v>
       </c>
       <c r="E9">
-        <v>-0.0680043547790259</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01501285866416653</v>
+      </c>
+      <c r="F9">
+        <v>-0.05880598495690401</v>
+      </c>
+      <c r="G9">
+        <v>-0.01813596474539667</v>
+      </c>
+      <c r="H9">
+        <v>-0.0559331396127007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1754706441758667</v>
+        <v>0.2408162732025549</v>
       </c>
       <c r="C10">
-        <v>-0.1671376032427296</v>
+        <v>0.09146805342571128</v>
       </c>
       <c r="D10">
-        <v>0.002826503273714639</v>
+        <v>0.002933654880079259</v>
       </c>
       <c r="E10">
-        <v>-0.0452908429342464</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01084263388412549</v>
+      </c>
+      <c r="F10">
+        <v>-0.04505413026307641</v>
+      </c>
+      <c r="G10">
+        <v>0.002571441815438977</v>
+      </c>
+      <c r="H10">
+        <v>0.03151049289271554</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.01754740495342591</v>
+        <v>0.009403719308720426</v>
       </c>
       <c r="C11">
-        <v>0.04125866082122124</v>
+        <v>-0.05625780137489664</v>
       </c>
       <c r="D11">
-        <v>0.04603439645031541</v>
+        <v>-0.04323876337638372</v>
       </c>
       <c r="E11">
-        <v>0.01560513356342176</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.02086426094744908</v>
+      </c>
+      <c r="F11">
+        <v>0.01343200668480174</v>
+      </c>
+      <c r="G11">
+        <v>-0.01333575396593271</v>
+      </c>
+      <c r="H11">
+        <v>-0.04545063290813547</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.01804153051090211</v>
+        <v>0.009604101942080518</v>
       </c>
       <c r="C12">
-        <v>0.04062913749535134</v>
+        <v>-0.04993476814189396</v>
       </c>
       <c r="D12">
-        <v>0.05990339827270446</v>
+        <v>-0.0466755968859386</v>
       </c>
       <c r="E12">
-        <v>0.005163878006087971</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.0161665550945615</v>
+      </c>
+      <c r="F12">
+        <v>0.01662503235680325</v>
+      </c>
+      <c r="G12">
+        <v>-0.03238289296319869</v>
+      </c>
+      <c r="H12">
+        <v>-0.0626239152144272</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.001021199269608837</v>
+        <v>-0.003518685177704249</v>
       </c>
       <c r="C13">
-        <v>0.02213722837214024</v>
+        <v>-0.04745227970342054</v>
       </c>
       <c r="D13">
-        <v>0.1425730332897245</v>
+        <v>-0.1493450916072596</v>
       </c>
       <c r="E13">
-        <v>-0.03778178483813356</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.04321380176105148</v>
+      </c>
+      <c r="F13">
+        <v>-0.03554659240429351</v>
+      </c>
+      <c r="G13">
+        <v>0.01378596982355761</v>
+      </c>
+      <c r="H13">
+        <v>-0.07805852738638377</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.006014916538272264</v>
+        <v>0.001589350197620778</v>
       </c>
       <c r="C14">
-        <v>0.01583743406870626</v>
+        <v>-0.03062349130544207</v>
       </c>
       <c r="D14">
-        <v>0.09644134385490562</v>
+        <v>-0.1014863971063116</v>
       </c>
       <c r="E14">
-        <v>-0.01181716848771624</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.05327154514646291</v>
+      </c>
+      <c r="F14">
+        <v>-0.03434854972230468</v>
+      </c>
+      <c r="G14">
+        <v>0.0016703253972638</v>
+      </c>
+      <c r="H14">
+        <v>-0.1310216775158068</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.002866685098330813</v>
+        <v>-0.002109593563562439</v>
       </c>
       <c r="C15">
-        <v>0.010706450787446</v>
+        <v>-0.02654805525730446</v>
       </c>
       <c r="D15">
-        <v>0.0321735085175437</v>
+        <v>-0.05954102595136633</v>
       </c>
       <c r="E15">
-        <v>0.00365933461563158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.01232561763289922</v>
+      </c>
+      <c r="F15">
+        <v>-0.006504015882981684</v>
+      </c>
+      <c r="G15">
+        <v>0.0148915504848327</v>
+      </c>
+      <c r="H15">
+        <v>-0.03742143410440964</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.0173042382815921</v>
+        <v>0.009637029785323567</v>
       </c>
       <c r="C16">
-        <v>0.03677905829533093</v>
+        <v>-0.04956456162848678</v>
       </c>
       <c r="D16">
-        <v>0.0525405427078355</v>
+        <v>-0.04383434852152739</v>
       </c>
       <c r="E16">
-        <v>0.007210117445508116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.02270412206120937</v>
+      </c>
+      <c r="F16">
+        <v>0.008698372162311712</v>
+      </c>
+      <c r="G16">
+        <v>-0.02317121538485744</v>
+      </c>
+      <c r="H16">
+        <v>-0.0428275290559765</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1136,19 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1162,227 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.003464913946862246</v>
+        <v>-0.0001445129022512343</v>
       </c>
       <c r="C19">
-        <v>0.01873362188039982</v>
+        <v>-0.01761154603170589</v>
       </c>
       <c r="D19">
-        <v>0.1028480306720416</v>
+        <v>-0.06337139341899298</v>
       </c>
       <c r="E19">
-        <v>-0.04546683456991541</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.01022610317829597</v>
+      </c>
+      <c r="F19">
+        <v>-0.01527755300980527</v>
+      </c>
+      <c r="G19">
+        <v>0.01025889259137669</v>
+      </c>
+      <c r="H19">
+        <v>-0.05819367768685695</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.001459799099330791</v>
+        <v>0.004599887150536702</v>
       </c>
       <c r="C20">
-        <v>0.02462102403064645</v>
+        <v>-0.04166540041516391</v>
       </c>
       <c r="D20">
-        <v>0.08557991611207846</v>
+        <v>-0.0914778180985962</v>
       </c>
       <c r="E20">
-        <v>-0.03281714776227654</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02572448470758044</v>
+      </c>
+      <c r="F20">
+        <v>-0.02684556716236841</v>
+      </c>
+      <c r="G20">
+        <v>-0.01462032037576675</v>
+      </c>
+      <c r="H20">
+        <v>-0.05598747967409714</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.005672357663132689</v>
+        <v>0.005042489276474182</v>
       </c>
       <c r="C21">
-        <v>0.02728241264218439</v>
+        <v>-0.04512625256838362</v>
       </c>
       <c r="D21">
-        <v>0.1628864528647621</v>
+        <v>-0.1304166223531061</v>
       </c>
       <c r="E21">
-        <v>-0.07910870608778059</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.03380259822126082</v>
+      </c>
+      <c r="F21">
+        <v>-0.09545206798389035</v>
+      </c>
+      <c r="G21">
+        <v>0.01141842867798016</v>
+      </c>
+      <c r="H21">
+        <v>-0.1973693780531408</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.002278280629856336</v>
+        <v>-0.01337218692847298</v>
       </c>
       <c r="C22">
-        <v>0.06287779906997047</v>
+        <v>-0.08762386554956418</v>
       </c>
       <c r="D22">
-        <v>0.2513662779646761</v>
+        <v>-0.2547490110938637</v>
       </c>
       <c r="E22">
-        <v>0.01617458635291327</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.06523166285552653</v>
+      </c>
+      <c r="F22">
+        <v>-0.003252046738743986</v>
+      </c>
+      <c r="G22">
+        <v>0.4086126315597474</v>
+      </c>
+      <c r="H22">
+        <v>0.3844441570368427</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.001997299451971723</v>
+        <v>-0.01014221779127887</v>
       </c>
       <c r="C23">
-        <v>0.06337394006854134</v>
+        <v>-0.08924311459785318</v>
       </c>
       <c r="D23">
-        <v>0.2507815791459407</v>
+        <v>-0.2574236541972137</v>
       </c>
       <c r="E23">
-        <v>0.01601652016959193</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.0604803487135035</v>
+      </c>
+      <c r="F23">
+        <v>-0.006558004559062479</v>
+      </c>
+      <c r="G23">
+        <v>0.3961483095917754</v>
+      </c>
+      <c r="H23">
+        <v>0.3695930525269285</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02215151378548091</v>
+        <v>0.009393859050125356</v>
       </c>
       <c r="C24">
-        <v>0.05649120653240481</v>
+        <v>-0.06599986163703206</v>
       </c>
       <c r="D24">
-        <v>0.06311702860247126</v>
+        <v>-0.048916809536569</v>
       </c>
       <c r="E24">
-        <v>0.002113411494118926</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.02992807917399781</v>
+      </c>
+      <c r="F24">
+        <v>0.003866580120651852</v>
+      </c>
+      <c r="G24">
+        <v>-0.0129365243072477</v>
+      </c>
+      <c r="H24">
+        <v>-0.06837104119933099</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.02384680078822977</v>
+        <v>0.01387694630078615</v>
       </c>
       <c r="C25">
-        <v>0.04830188637992841</v>
+        <v>-0.06071966787314511</v>
       </c>
       <c r="D25">
-        <v>0.05899427962561012</v>
+        <v>-0.04947324202003153</v>
       </c>
       <c r="E25">
-        <v>-0.002083986296123481</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.01501237504287887</v>
+      </c>
+      <c r="F25">
+        <v>0.006182461139896395</v>
+      </c>
+      <c r="G25">
+        <v>-0.01538036680831653</v>
+      </c>
+      <c r="H25">
+        <v>-0.03449858134743215</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.006603367455146518</v>
+        <v>0.01447792289113591</v>
       </c>
       <c r="C26">
-        <v>0.01490412036201016</v>
+        <v>-0.02746742293841528</v>
       </c>
       <c r="D26">
-        <v>0.08672386687495057</v>
+        <v>-0.0691480206391533</v>
       </c>
       <c r="E26">
-        <v>-0.01960614695180591</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.04536336668857871</v>
+      </c>
+      <c r="F26">
+        <v>-0.04162942071091022</v>
+      </c>
+      <c r="G26">
+        <v>-0.0118965877747761</v>
+      </c>
+      <c r="H26">
+        <v>-0.0980446319978054</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1396,253 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2603694285387486</v>
+        <v>0.3185957333184379</v>
       </c>
       <c r="C28">
-        <v>-0.1958070569600348</v>
+        <v>0.09115383363139805</v>
       </c>
       <c r="D28">
-        <v>0.02023945342235149</v>
+        <v>0.01431591183845267</v>
       </c>
       <c r="E28">
-        <v>-0.05946566803536864</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.05014316368763343</v>
+      </c>
+      <c r="F28">
+        <v>-0.04803761664371643</v>
+      </c>
+      <c r="G28">
+        <v>0.05362078863940648</v>
+      </c>
+      <c r="H28">
+        <v>0.003778717165969411</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.002018180129066593</v>
+        <v>0.0009592735171520158</v>
       </c>
       <c r="C29">
-        <v>0.02080272803792077</v>
+        <v>-0.03632251114489458</v>
       </c>
       <c r="D29">
-        <v>0.09658761819216959</v>
+        <v>-0.1031462968003416</v>
       </c>
       <c r="E29">
-        <v>-0.01706862274797379</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.06018116181177295</v>
+      </c>
+      <c r="F29">
+        <v>-0.03773952930392226</v>
+      </c>
+      <c r="G29">
+        <v>-0.01206969022060951</v>
+      </c>
+      <c r="H29">
+        <v>-0.1362248740811204</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.02109345712710608</v>
+        <v>0.01364980312140621</v>
       </c>
       <c r="C30">
-        <v>0.05830269998860804</v>
+        <v>-0.08641594793090013</v>
       </c>
       <c r="D30">
-        <v>0.1668000249721181</v>
+        <v>-0.1485144389371174</v>
       </c>
       <c r="E30">
-        <v>-0.02675432897098715</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.05786708774957227</v>
+      </c>
+      <c r="F30">
+        <v>-0.02671867533612242</v>
+      </c>
+      <c r="G30">
+        <v>0.02012444098321134</v>
+      </c>
+      <c r="H30">
+        <v>-0.04403850648811393</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.03654906583043664</v>
+        <v>0.009207731936131188</v>
       </c>
       <c r="C31">
-        <v>0.08513746807112878</v>
+        <v>-0.09405199756601906</v>
       </c>
       <c r="D31">
-        <v>0.06833566347444149</v>
+        <v>-0.03923273176287856</v>
       </c>
       <c r="E31">
-        <v>-0.01299017308736723</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.02019145334211046</v>
+      </c>
+      <c r="F31">
+        <v>-0.01422317550626175</v>
+      </c>
+      <c r="G31">
+        <v>-0.002417468924242787</v>
+      </c>
+      <c r="H31">
+        <v>-0.04784593767691202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01654148683133381</v>
+        <v>0.008637029846769204</v>
       </c>
       <c r="C32">
-        <v>0.03280569488540824</v>
+        <v>-0.04953783581963789</v>
       </c>
       <c r="D32">
-        <v>0.09586525980676099</v>
+        <v>-0.10756027542102</v>
       </c>
       <c r="E32">
-        <v>-0.06783209435855161</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.004323819298927705</v>
+      </c>
+      <c r="F32">
+        <v>-0.05158520051996116</v>
+      </c>
+      <c r="G32">
+        <v>0.01047859204851781</v>
+      </c>
+      <c r="H32">
+        <v>-0.05500936926440363</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.008189508381732616</v>
+        <v>0.0060998007282075</v>
       </c>
       <c r="C33">
-        <v>0.04033648920096221</v>
+        <v>-0.05938406050429366</v>
       </c>
       <c r="D33">
-        <v>0.1404429802604125</v>
+        <v>-0.1211547841920788</v>
       </c>
       <c r="E33">
-        <v>-0.04209898462828846</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.02943899050077867</v>
+      </c>
+      <c r="F33">
+        <v>-0.02652708667324069</v>
+      </c>
+      <c r="G33">
+        <v>-0.005880247864776551</v>
+      </c>
+      <c r="H33">
+        <v>-0.0638837467180037</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.02020465997409692</v>
+        <v>0.007518767538373824</v>
       </c>
       <c r="C34">
-        <v>0.05822319962559305</v>
+        <v>-0.0615659784914409</v>
       </c>
       <c r="D34">
-        <v>0.05207612281959553</v>
+        <v>-0.02878403189608597</v>
       </c>
       <c r="E34">
-        <v>0.04540692997654548</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.02956597721819625</v>
+      </c>
+      <c r="F34">
+        <v>0.0390709444823979</v>
+      </c>
+      <c r="G34">
+        <v>-0.018203333486219</v>
+      </c>
+      <c r="H34">
+        <v>-0.05158172615046044</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.002495821260117563</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.01085900048244857</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>-0.03339238454529063</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.005003112129292514</v>
+      </c>
+      <c r="F35">
+        <v>-0.01702955121520349</v>
+      </c>
+      <c r="G35">
+        <v>-0.00698696333033513</v>
+      </c>
+      <c r="H35">
+        <v>-0.05146656465885543</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.006567996585884488</v>
+        <v>0.01119353747767672</v>
       </c>
       <c r="C36">
-        <v>0.006060993512373009</v>
+        <v>-0.02225941049699295</v>
       </c>
       <c r="D36">
-        <v>0.08693551400133771</v>
+        <v>-0.07590849081826781</v>
       </c>
       <c r="E36">
-        <v>-0.04515032308772486</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.02938957491735937</v>
+      </c>
+      <c r="F36">
+        <v>-0.04852131599578006</v>
+      </c>
+      <c r="G36">
+        <v>-0.002771274789368659</v>
+      </c>
+      <c r="H36">
+        <v>-0.06630485112403628</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1656,123 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.004521867641678643</v>
+        <v>0.01304064443677549</v>
       </c>
       <c r="C38">
-        <v>0.006197817147855431</v>
+        <v>-0.02086605834219128</v>
       </c>
       <c r="D38">
-        <v>0.09257934858982732</v>
+        <v>-0.08626809134851636</v>
       </c>
       <c r="E38">
-        <v>-0.01264806646336589</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.00581148464268769</v>
+      </c>
+      <c r="F38">
+        <v>-0.002907454360011735</v>
+      </c>
+      <c r="G38">
+        <v>0.02185504371578043</v>
+      </c>
+      <c r="H38">
+        <v>-0.06739706619561048</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.01401272026017878</v>
+        <v>0.002454969540240238</v>
       </c>
       <c r="C39">
-        <v>0.05697601789995897</v>
+        <v>-0.07644809148467289</v>
       </c>
       <c r="D39">
-        <v>0.112475794203034</v>
+        <v>-0.09539068151930298</v>
       </c>
       <c r="E39">
-        <v>0.01251152727249359</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.0551854591251394</v>
+      </c>
+      <c r="F39">
+        <v>0.005596477351175238</v>
+      </c>
+      <c r="G39">
+        <v>-0.01927998521179775</v>
+      </c>
+      <c r="H39">
+        <v>-0.09213986438255554</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01534348151090407</v>
+        <v>0.01343904310194128</v>
       </c>
       <c r="C40">
-        <v>0.0236302231390607</v>
+        <v>-0.0377646421885415</v>
       </c>
       <c r="D40">
-        <v>0.1154157776828711</v>
+        <v>-0.09399189661498691</v>
       </c>
       <c r="E40">
-        <v>0.008119758406989655</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.04287181441638278</v>
+      </c>
+      <c r="F40">
+        <v>0.01341581898903779</v>
+      </c>
+      <c r="G40">
+        <v>0.05989220342152444</v>
+      </c>
+      <c r="H40">
+        <v>-0.1097386874246348</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.00915678642612818</v>
+        <v>0.01581989172854935</v>
       </c>
       <c r="C41">
-        <v>0.003993757981837998</v>
+        <v>-0.01890663330866829</v>
       </c>
       <c r="D41">
-        <v>0.04607846272207292</v>
+        <v>-0.04859839269745736</v>
       </c>
       <c r="E41">
-        <v>-0.03278282052220898</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.005994313964148405</v>
+      </c>
+      <c r="F41">
+        <v>-0.02465723086385799</v>
+      </c>
+      <c r="G41">
+        <v>0.00124741834074562</v>
+      </c>
+      <c r="H41">
+        <v>-0.04771049841982981</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1786,71 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.001779259901340366</v>
+        <v>0.008588408953678978</v>
       </c>
       <c r="C43">
-        <v>0.004709343871791165</v>
+        <v>-0.0160096787334136</v>
       </c>
       <c r="D43">
-        <v>0.05450913679845058</v>
+        <v>-0.05220810738427356</v>
       </c>
       <c r="E43">
-        <v>-0.02192100385067889</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.01022955397984269</v>
+      </c>
+      <c r="F43">
+        <v>-0.01966690721018008</v>
+      </c>
+      <c r="G43">
+        <v>0.003206482135360436</v>
+      </c>
+      <c r="H43">
+        <v>-0.05621323154736831</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01518267283347077</v>
+        <v>0.01138865517756851</v>
       </c>
       <c r="C44">
-        <v>0.02438715063257489</v>
+        <v>-0.04790776816546306</v>
       </c>
       <c r="D44">
-        <v>0.104081759544491</v>
+        <v>-0.1086798726391348</v>
       </c>
       <c r="E44">
-        <v>-0.04941648097232074</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.03914814760502095</v>
+      </c>
+      <c r="F44">
+        <v>-0.03701958181566998</v>
+      </c>
+      <c r="G44">
+        <v>0.0272105451655655</v>
+      </c>
+      <c r="H44">
+        <v>-0.05435249487017148</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1864,97 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.004789449560712435</v>
+        <v>7.478117358648944e-05</v>
       </c>
       <c r="C46">
-        <v>0.02856863608438542</v>
+        <v>-0.04051223635081463</v>
       </c>
       <c r="D46">
-        <v>0.08880779594223462</v>
+        <v>-0.07405282934242169</v>
       </c>
       <c r="E46">
-        <v>-0.01810368430547113</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.04414501862816965</v>
+      </c>
+      <c r="F46">
+        <v>-0.03211402734932892</v>
+      </c>
+      <c r="G46">
+        <v>0.00352964787152563</v>
+      </c>
+      <c r="H46">
+        <v>-0.1292453075087195</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.07870523579201605</v>
+        <v>0.03378013991408527</v>
       </c>
       <c r="C47">
-        <v>0.1083954166184208</v>
+        <v>-0.1266679935407092</v>
       </c>
       <c r="D47">
-        <v>0.0593486645559729</v>
+        <v>-0.02165732050810271</v>
       </c>
       <c r="E47">
-        <v>-0.03031636987482917</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.006655532434964855</v>
+      </c>
+      <c r="F47">
+        <v>0.005524603586749569</v>
+      </c>
+      <c r="G47">
+        <v>-0.04661469232421842</v>
+      </c>
+      <c r="H47">
+        <v>-0.05539557997751617</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.007543990302059432</v>
+        <v>0.01272626901597607</v>
       </c>
       <c r="C48">
-        <v>0.01482176253348433</v>
+        <v>-0.03227858796530117</v>
       </c>
       <c r="D48">
-        <v>0.09134915325328119</v>
+        <v>-0.0818432071592948</v>
       </c>
       <c r="E48">
-        <v>-0.05747064774058285</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.02333760306032293</v>
+      </c>
+      <c r="F48">
+        <v>-0.05789755413133758</v>
+      </c>
+      <c r="G48">
+        <v>-0.002627814727621718</v>
+      </c>
+      <c r="H48">
+        <v>-0.1068178540763025</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1968,71 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03402277069396285</v>
+        <v>0.01379777239805667</v>
       </c>
       <c r="C50">
-        <v>0.0591639591507678</v>
+        <v>-0.07546767217213436</v>
       </c>
       <c r="D50">
-        <v>0.06315152573019332</v>
+        <v>-0.04748661096446247</v>
       </c>
       <c r="E50">
-        <v>-0.008138112222390498</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01325474216339949</v>
+      </c>
+      <c r="F50">
+        <v>-0.007954315107326028</v>
+      </c>
+      <c r="G50">
+        <v>0.009064488895954258</v>
+      </c>
+      <c r="H50">
+        <v>-0.03679444240251341</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.001538050703520954</v>
+        <v>-0.0004528271594215392</v>
       </c>
       <c r="C51">
-        <v>0.005114326722812428</v>
+        <v>-0.01751929570266639</v>
       </c>
       <c r="D51">
-        <v>0.05463016032633108</v>
+        <v>-0.05578493675855808</v>
       </c>
       <c r="E51">
-        <v>-0.003068397942810309</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.03931708614069133</v>
+      </c>
+      <c r="F51">
+        <v>-0.03896882919523458</v>
+      </c>
+      <c r="G51">
+        <v>0.01870938928459533</v>
+      </c>
+      <c r="H51">
+        <v>-0.0546574280159987</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2046,123 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1060139912417254</v>
+        <v>0.05372524385350174</v>
       </c>
       <c r="C53">
-        <v>0.1263889528479912</v>
+        <v>-0.1570254971263701</v>
       </c>
       <c r="D53">
-        <v>0.01024907979274998</v>
+        <v>0.02118921131563361</v>
       </c>
       <c r="E53">
-        <v>-0.06129939768273426</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.03010350737746971</v>
+      </c>
+      <c r="F53">
+        <v>-0.04972483183045311</v>
+      </c>
+      <c r="G53">
+        <v>-0.0006143814226392531</v>
+      </c>
+      <c r="H53">
+        <v>-0.008598466607926063</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.01005978356962495</v>
+        <v>0.009611792882241899</v>
       </c>
       <c r="C54">
-        <v>0.02054113863969607</v>
+        <v>-0.03801297509201144</v>
       </c>
       <c r="D54">
-        <v>0.09191173307579831</v>
+        <v>-0.07728521985478314</v>
       </c>
       <c r="E54">
-        <v>-0.005474620748657738</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.01743680788232407</v>
+      </c>
+      <c r="F54">
+        <v>-0.001179635168513521</v>
+      </c>
+      <c r="G54">
+        <v>0.01329022984894553</v>
+      </c>
+      <c r="H54">
+        <v>-0.08111070197160541</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09263735709660671</v>
+        <v>0.0408690789081673</v>
       </c>
       <c r="C55">
-        <v>0.1069712974242536</v>
+        <v>-0.1306504466376163</v>
       </c>
       <c r="D55">
-        <v>0.008117335778514312</v>
+        <v>0.03041389995039247</v>
       </c>
       <c r="E55">
-        <v>-0.01084667815191294</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.004492077329058942</v>
+      </c>
+      <c r="F55">
+        <v>-0.01407751397330032</v>
+      </c>
+      <c r="G55">
+        <v>0.003693279285642874</v>
+      </c>
+      <c r="H55">
+        <v>-0.01565305156170087</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1306692216567656</v>
+        <v>0.05557400198459323</v>
       </c>
       <c r="C56">
-        <v>0.1441367267055404</v>
+        <v>-0.1892375900382699</v>
       </c>
       <c r="D56">
-        <v>0.002760615257151492</v>
+        <v>0.03037603457101615</v>
       </c>
       <c r="E56">
-        <v>-0.01280179378594188</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03140964930005485</v>
+      </c>
+      <c r="F56">
+        <v>-0.01672197609698276</v>
+      </c>
+      <c r="G56">
+        <v>0.05212629686992736</v>
+      </c>
+      <c r="H56">
+        <v>-0.01134275280530366</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2176,123 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.008751248902146404</v>
+        <v>0.006146928014636404</v>
       </c>
       <c r="C58">
-        <v>0.009778121692305882</v>
+        <v>-0.05391865534927213</v>
       </c>
       <c r="D58">
-        <v>0.2224945267749296</v>
+        <v>-0.2755328781100613</v>
       </c>
       <c r="E58">
-        <v>-0.08196806117927298</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.0213363693339144</v>
+      </c>
+      <c r="F58">
+        <v>-0.1044053366817314</v>
+      </c>
+      <c r="G58">
+        <v>0.1374598090778728</v>
+      </c>
+      <c r="H58">
+        <v>0.0844212275853467</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1832392330066452</v>
+        <v>0.253303618593421</v>
       </c>
       <c r="C59">
-        <v>-0.1455364176448085</v>
+        <v>0.06136684056028153</v>
       </c>
       <c r="D59">
-        <v>0.04619400353628058</v>
+        <v>-0.05689588451076888</v>
       </c>
       <c r="E59">
-        <v>-0.03617830458045411</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.01931547814624523</v>
+      </c>
+      <c r="F59">
+        <v>-0.02271905546089141</v>
+      </c>
+      <c r="G59">
+        <v>0.01021122407724258</v>
+      </c>
+      <c r="H59">
+        <v>0.0008550367302916314</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1828656253467356</v>
+        <v>0.1489674062737671</v>
       </c>
       <c r="C60">
-        <v>0.1063721809377562</v>
+        <v>-0.1743950733817701</v>
       </c>
       <c r="D60">
-        <v>0.2025371785137948</v>
+        <v>-0.08180040628691926</v>
       </c>
       <c r="E60">
-        <v>0.1636933823022474</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.162291346115068</v>
+      </c>
+      <c r="F60">
+        <v>0.2241492211099434</v>
+      </c>
+      <c r="G60">
+        <v>-0.2167572063650539</v>
+      </c>
+      <c r="H60">
+        <v>0.2391634963698436</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02423601588670743</v>
+        <v>0.01092991120739794</v>
       </c>
       <c r="C61">
-        <v>0.0534202213293382</v>
+        <v>-0.07456961331854463</v>
       </c>
       <c r="D61">
-        <v>0.09851376791608703</v>
+        <v>-0.07826378601943863</v>
       </c>
       <c r="E61">
-        <v>0.003928395961790016</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.03891405591157841</v>
+      </c>
+      <c r="F61">
+        <v>0.0137343405310276</v>
+      </c>
+      <c r="G61">
+        <v>-0.03551988478377542</v>
+      </c>
+      <c r="H61">
+        <v>-0.08471483404646303</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2306,201 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.00603244682365358</v>
+        <v>0.007917515149326131</v>
       </c>
       <c r="C63">
-        <v>0.02452976184196832</v>
+        <v>-0.0369664072590405</v>
       </c>
       <c r="D63">
-        <v>0.09836580417565684</v>
+        <v>-0.06925201128937356</v>
       </c>
       <c r="E63">
-        <v>-0.01557939122786173</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.06064216795483453</v>
+      </c>
+      <c r="F63">
+        <v>-0.02438852586888115</v>
+      </c>
+      <c r="G63">
+        <v>-0.005134529535471062</v>
+      </c>
+      <c r="H63">
+        <v>-0.06800572957195421</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.0537436673529739</v>
+        <v>0.01613000407169771</v>
       </c>
       <c r="C64">
-        <v>0.08399726661317661</v>
+        <v>-0.1045069635090197</v>
       </c>
       <c r="D64">
-        <v>0.03267097023843674</v>
+        <v>-0.01607704738313775</v>
       </c>
       <c r="E64">
-        <v>-0.01542982872258251</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.02537818898975023</v>
+      </c>
+      <c r="F64">
+        <v>-0.01755991737927785</v>
+      </c>
+      <c r="G64">
+        <v>-0.0530473230926375</v>
+      </c>
+      <c r="H64">
+        <v>-0.07978507046875501</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.02397294604131176</v>
+        <v>0.02074104106806163</v>
       </c>
       <c r="C65">
-        <v>0.01521141807741604</v>
+        <v>-0.04350787846206327</v>
       </c>
       <c r="D65">
-        <v>0.1171418920935618</v>
+        <v>-0.1162066898648774</v>
       </c>
       <c r="E65">
-        <v>-0.006726064827670198</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.04575626560993121</v>
+      </c>
+      <c r="F65">
+        <v>0.007405755414873936</v>
+      </c>
+      <c r="G65">
+        <v>-0.0304485949004425</v>
+      </c>
+      <c r="H65">
+        <v>-0.01297605913863748</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.01797048201552454</v>
+        <v>-0.0004369439929895326</v>
       </c>
       <c r="C66">
-        <v>0.06493735007522256</v>
+        <v>-0.09467567340940494</v>
       </c>
       <c r="D66">
-        <v>0.1206636575200318</v>
+        <v>-0.1205263045984941</v>
       </c>
       <c r="E66">
-        <v>0.01520617006014608</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.04362362184559947</v>
+      </c>
+      <c r="F66">
+        <v>0.01132064909333955</v>
+      </c>
+      <c r="G66">
+        <v>0.006084004067361157</v>
+      </c>
+      <c r="H66">
+        <v>-0.05883171018101764</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.02298440418101975</v>
+        <v>0.02317971929076004</v>
       </c>
       <c r="C67">
-        <v>0.01965392257513006</v>
+        <v>-0.03289292471762716</v>
       </c>
       <c r="D67">
-        <v>0.04857121163575175</v>
+        <v>-0.03999079454928979</v>
       </c>
       <c r="E67">
-        <v>0.01446907380208154</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.01116165692160164</v>
+      </c>
+      <c r="F67">
+        <v>0.02559015909664555</v>
+      </c>
+      <c r="G67">
+        <v>0.005098251076977319</v>
+      </c>
+      <c r="H67">
+        <v>-0.0694361355480007</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.2064348350325198</v>
+        <v>0.2746454536236597</v>
       </c>
       <c r="C68">
-        <v>-0.1543124268998346</v>
+        <v>0.06817455888196997</v>
       </c>
       <c r="D68">
-        <v>0.03054132051448784</v>
+        <v>-0.02545192956437383</v>
       </c>
       <c r="E68">
-        <v>-0.00691191561219912</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.004073727559146644</v>
+      </c>
+      <c r="F68">
+        <v>-0.02458369266033565</v>
+      </c>
+      <c r="G68">
+        <v>0.07274579125675207</v>
+      </c>
+      <c r="H68">
+        <v>0.04773423102879416</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05433598597157512</v>
+        <v>0.01793750777411127</v>
       </c>
       <c r="C69">
-        <v>0.1159123011101509</v>
+        <v>-0.1187050105352786</v>
       </c>
       <c r="D69">
-        <v>0.07858969783326242</v>
+        <v>-0.02824067629336842</v>
       </c>
       <c r="E69">
-        <v>-0.01788824440861261</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.008634163835508593</v>
+      </c>
+      <c r="F69">
+        <v>0.008897085907735075</v>
+      </c>
+      <c r="G69">
+        <v>-0.02767766502643026</v>
+      </c>
+      <c r="H69">
+        <v>-0.04657077421065823</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2514,669 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.2164669324972965</v>
+        <v>0.2754381194606805</v>
       </c>
       <c r="C71">
-        <v>-0.1770741905944225</v>
+        <v>0.08038573194363501</v>
       </c>
       <c r="D71">
-        <v>0.01887629728567581</v>
+        <v>-0.01599461839686463</v>
       </c>
       <c r="E71">
-        <v>-0.0125081935456645</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.000742540177008322</v>
+      </c>
+      <c r="F71">
+        <v>-0.02160135869799679</v>
+      </c>
+      <c r="G71">
+        <v>0.04058895984598115</v>
+      </c>
+      <c r="H71">
+        <v>-0.0215374336730998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1024988346888868</v>
+        <v>0.05545141208699091</v>
       </c>
       <c r="C72">
-        <v>0.07952102375127607</v>
+        <v>-0.1264309770297121</v>
       </c>
       <c r="D72">
-        <v>0.1039764020145273</v>
+        <v>-0.05414318462684947</v>
       </c>
       <c r="E72">
-        <v>0.04689008358833373</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.068192882900657</v>
+      </c>
+      <c r="F72">
+        <v>0.02891739773783624</v>
+      </c>
+      <c r="G72">
+        <v>-0.03873268256992145</v>
+      </c>
+      <c r="H72">
+        <v>-0.04437702132220153</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1722375495106276</v>
+        <v>0.1408731044413601</v>
       </c>
       <c r="C73">
-        <v>0.07202740090180812</v>
+        <v>-0.1500755960870415</v>
       </c>
       <c r="D73">
-        <v>0.2659151341147766</v>
+        <v>-0.08767611659122987</v>
       </c>
       <c r="E73">
-        <v>0.246299547818242</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.2848454549603901</v>
+      </c>
+      <c r="F73">
+        <v>0.3161953336968508</v>
+      </c>
+      <c r="G73">
+        <v>-0.3983150780162033</v>
+      </c>
+      <c r="H73">
+        <v>0.1829306461318654</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1050978627769898</v>
+        <v>0.04876073616654918</v>
       </c>
       <c r="C74">
-        <v>0.1168253705679816</v>
+        <v>-0.1454216634740826</v>
       </c>
       <c r="D74">
-        <v>-0.0176781564732033</v>
+        <v>0.04226533256959238</v>
       </c>
       <c r="E74">
-        <v>-0.04044942878933863</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01208930251801229</v>
+      </c>
+      <c r="F74">
+        <v>-0.03721822577382927</v>
+      </c>
+      <c r="G74">
+        <v>-0.005600747738613925</v>
+      </c>
+      <c r="H74">
+        <v>0.009036022015159512</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2301518999612589</v>
+        <v>0.1069248280688626</v>
       </c>
       <c r="C75">
-        <v>0.203990678008308</v>
+        <v>-0.2684707749071362</v>
       </c>
       <c r="D75">
-        <v>-0.1054559984703378</v>
+        <v>0.1376629030710963</v>
       </c>
       <c r="E75">
-        <v>0.0267965950654786</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.09193239728799409</v>
+      </c>
+      <c r="F75">
+        <v>0.02623363162691688</v>
+      </c>
+      <c r="G75">
+        <v>0.1007928888891829</v>
+      </c>
+      <c r="H75">
+        <v>-0.02552227392339336</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1374508860036957</v>
+        <v>0.06083399455020622</v>
       </c>
       <c r="C76">
-        <v>0.1409086950667791</v>
+        <v>-0.1819292768146332</v>
       </c>
       <c r="D76">
-        <v>0.01535376659217508</v>
+        <v>0.03872527909744294</v>
       </c>
       <c r="E76">
-        <v>-0.01364290330339777</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.02300819236096143</v>
+      </c>
+      <c r="F76">
+        <v>-0.005205321648130257</v>
+      </c>
+      <c r="G76">
+        <v>0.03527774042196676</v>
+      </c>
+      <c r="H76">
+        <v>-0.03881000005180495</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.0202771994281738</v>
+        <v>0.001819876947216519</v>
       </c>
       <c r="C77">
-        <v>0.06654435900943229</v>
+        <v>-0.1062613261545704</v>
       </c>
       <c r="D77">
-        <v>-0.002604158738239914</v>
+        <v>-0.3254838571611223</v>
       </c>
       <c r="E77">
-        <v>-0.2370189146554589</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.8398764355504876</v>
+      </c>
+      <c r="F77">
+        <v>0.2214658243621171</v>
+      </c>
+      <c r="G77">
+        <v>-0.1935041040661452</v>
+      </c>
+      <c r="H77">
+        <v>0.1554459000761229</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.02513102211483132</v>
+        <v>0.01593655191960501</v>
       </c>
       <c r="C78">
-        <v>0.06920222786119028</v>
+        <v>-0.09131675297545178</v>
       </c>
       <c r="D78">
-        <v>0.1513836247594077</v>
+        <v>-0.1172018837960234</v>
       </c>
       <c r="E78">
-        <v>-0.04580927358445827</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.07030931413377192</v>
+      </c>
+      <c r="F78">
+        <v>-0.04220060734334394</v>
+      </c>
+      <c r="G78">
+        <v>0.03276072781791978</v>
+      </c>
+      <c r="H78">
+        <v>-0.02906901541213369</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.09391947825760369</v>
+        <v>0.03468978212323768</v>
       </c>
       <c r="C79">
-        <v>0.177246782018348</v>
+        <v>-0.193305141252707</v>
       </c>
       <c r="D79">
-        <v>-0.1136423077871944</v>
+        <v>0.07045859540793849</v>
       </c>
       <c r="E79">
-        <v>-0.7943950300431811</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.05413371218314093</v>
+      </c>
+      <c r="F79">
+        <v>-0.779332182137933</v>
+      </c>
+      <c r="G79">
+        <v>-0.3727069164250898</v>
+      </c>
+      <c r="H79">
+        <v>0.3322370463338447</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.004342463384937791</v>
+        <v>0.00483619507755745</v>
       </c>
       <c r="C80">
-        <v>0.04566274995108863</v>
+        <v>-0.04695447500212356</v>
       </c>
       <c r="D80">
-        <v>0.05328250182923187</v>
+        <v>-0.0405744079665995</v>
       </c>
       <c r="E80">
-        <v>0.007674712729511102</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.04566117932163798</v>
+      </c>
+      <c r="F80">
+        <v>-0.002645537904347632</v>
+      </c>
+      <c r="G80">
+        <v>0.007718632067315893</v>
+      </c>
+      <c r="H80">
+        <v>-0.03378392843489923</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1178302232076396</v>
+        <v>0.04263530475115039</v>
       </c>
       <c r="C81">
-        <v>0.1363238036131057</v>
+        <v>-0.1681025169324508</v>
       </c>
       <c r="D81">
-        <v>-0.06771384587918555</v>
+        <v>0.07609595018759527</v>
       </c>
       <c r="E81">
-        <v>-0.06039765770301504</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.04992407793044094</v>
+      </c>
+      <c r="F81">
+        <v>-0.06745360111225938</v>
+      </c>
+      <c r="G81">
+        <v>0.04929886237795741</v>
+      </c>
+      <c r="H81">
+        <v>-0.08214247441634727</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2472710861413902</v>
+        <v>0.08938997939816232</v>
       </c>
       <c r="C82">
-        <v>0.302648327081145</v>
+        <v>-0.3216311415304043</v>
       </c>
       <c r="D82">
-        <v>-0.2002548057268362</v>
+        <v>0.2405896664415155</v>
       </c>
       <c r="E82">
-        <v>0.1400242027084965</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.06361771962196193</v>
+      </c>
+      <c r="F82">
+        <v>0.1031709018988846</v>
+      </c>
+      <c r="G82">
+        <v>0.09422237397363681</v>
+      </c>
+      <c r="H82">
+        <v>-0.1196394542003085</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.008114795948203942</v>
+        <v>-0.01313483389979597</v>
       </c>
       <c r="C83">
-        <v>0.05099396819418096</v>
+        <v>-0.02567910491739061</v>
       </c>
       <c r="D83">
-        <v>0.0001739451086296502</v>
+        <v>-0.02710805744111486</v>
       </c>
       <c r="E83">
-        <v>-0.06094925073378066</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.07863239301081386</v>
+      </c>
+      <c r="F83">
+        <v>-0.0720378338169206</v>
+      </c>
+      <c r="G83">
+        <v>0.03640064508974654</v>
+      </c>
+      <c r="H83">
+        <v>-0.1001695857213135</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.001499394755436417</v>
+        <v>4.323659833092483e-05</v>
       </c>
       <c r="C84">
-        <v>-0.0002919277030586204</v>
+        <v>-0.01918027875239834</v>
       </c>
       <c r="D84">
-        <v>0.009097330146802661</v>
+        <v>-0.0486598798294598</v>
       </c>
       <c r="E84">
-        <v>0.002466152530144013</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.004606633621269893</v>
+      </c>
+      <c r="F84">
+        <v>-0.02744391500087613</v>
+      </c>
+      <c r="G84">
+        <v>0.04764788877628498</v>
+      </c>
+      <c r="H84">
+        <v>-0.01664844574086682</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1381454562305937</v>
+        <v>0.05652102254623186</v>
       </c>
       <c r="C85">
-        <v>0.1404384733457333</v>
+        <v>-0.1824274468189938</v>
       </c>
       <c r="D85">
-        <v>-0.03946647948480685</v>
+        <v>0.09024345420130386</v>
       </c>
       <c r="E85">
-        <v>-0.02445779461390488</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.0005590862512171941</v>
+      </c>
+      <c r="F85">
+        <v>-0.07537291262383704</v>
+      </c>
+      <c r="G85">
+        <v>0.02175900531811698</v>
+      </c>
+      <c r="H85">
+        <v>0.001254395863805577</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01474162974430725</v>
+        <v>0.01268994162894252</v>
       </c>
       <c r="C86">
-        <v>0.01376175910927986</v>
+        <v>-0.03378115423094724</v>
       </c>
       <c r="D86">
-        <v>0.08850440042396428</v>
+        <v>-0.103541497121588</v>
       </c>
       <c r="E86">
-        <v>-0.05354630242781829</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.02085430760632566</v>
+      </c>
+      <c r="F86">
+        <v>0.001973396740458259</v>
+      </c>
+      <c r="G86">
+        <v>-0.01800066098057403</v>
+      </c>
+      <c r="H86">
+        <v>-0.02263349623465017</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.01837106613258454</v>
+        <v>0.01285208598897538</v>
       </c>
       <c r="C87">
-        <v>0.02570190042286587</v>
+        <v>-0.05815992142137848</v>
       </c>
       <c r="D87">
-        <v>0.1344178430147777</v>
+        <v>-0.1428072159576346</v>
       </c>
       <c r="E87">
-        <v>-0.05489412051102278</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.01674194831801731</v>
+      </c>
+      <c r="F87">
+        <v>-0.03944965382774775</v>
+      </c>
+      <c r="G87">
+        <v>0.04929692900766439</v>
+      </c>
+      <c r="H87">
+        <v>-0.04597022995377482</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05241747766029785</v>
+        <v>0.03391344861684355</v>
       </c>
       <c r="C88">
-        <v>0.04524170699613223</v>
+        <v>-0.06834360496125255</v>
       </c>
       <c r="D88">
-        <v>0.03021084150562477</v>
+        <v>-0.0135848561609191</v>
       </c>
       <c r="E88">
-        <v>-0.03042698353751453</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.02776750428644556</v>
+      </c>
+      <c r="F88">
+        <v>-0.01924906621571348</v>
+      </c>
+      <c r="G88">
+        <v>-0.01397196527492123</v>
+      </c>
+      <c r="H88">
+        <v>-0.01826802795302581</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.3269334879129715</v>
+        <v>0.4077313551094429</v>
       </c>
       <c r="C89">
-        <v>-0.322344896598536</v>
+        <v>0.1523446967775197</v>
       </c>
       <c r="D89">
-        <v>0.01236228802436955</v>
+        <v>-0.03011390691600498</v>
       </c>
       <c r="E89">
-        <v>-0.1021388363941366</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.05158103051560688</v>
+      </c>
+      <c r="F89">
+        <v>-0.06411376176941209</v>
+      </c>
+      <c r="G89">
+        <v>0.00999179582717066</v>
+      </c>
+      <c r="H89">
+        <v>-0.1129097591515269</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2584831247725251</v>
+        <v>0.3208367543497576</v>
       </c>
       <c r="C90">
-        <v>-0.234490016906146</v>
+        <v>0.1039256791609236</v>
       </c>
       <c r="D90">
-        <v>0.04377477471103516</v>
+        <v>-0.03758953377275821</v>
       </c>
       <c r="E90">
-        <v>0.009689866168887347</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.01029001375629073</v>
+      </c>
+      <c r="F90">
+        <v>0.0064619683556405</v>
+      </c>
+      <c r="G90">
+        <v>0.06800677117871337</v>
+      </c>
+      <c r="H90">
+        <v>0.006710496240586454</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1515819164852818</v>
+        <v>0.06647947271631832</v>
       </c>
       <c r="C91">
-        <v>0.188101775105306</v>
+        <v>-0.207777457488919</v>
       </c>
       <c r="D91">
-        <v>-0.08998912657143819</v>
+        <v>0.1062223508002592</v>
       </c>
       <c r="E91">
-        <v>-0.08935621166791791</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.05886448691717987</v>
+      </c>
+      <c r="F91">
+        <v>-0.07346925896483511</v>
+      </c>
+      <c r="G91">
+        <v>0.005141891019442351</v>
+      </c>
+      <c r="H91">
+        <v>-0.002527994346951711</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.245296115997149</v>
+        <v>0.3393066666109634</v>
       </c>
       <c r="C92">
-        <v>-0.2568668973163707</v>
+        <v>0.1403999911646699</v>
       </c>
       <c r="D92">
-        <v>-0.05262935763265664</v>
+        <v>-0.004492772770387524</v>
       </c>
       <c r="E92">
-        <v>-0.04570016833019169</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.06222111570828595</v>
+      </c>
+      <c r="F92">
+        <v>-0.03045357981084858</v>
+      </c>
+      <c r="G92">
+        <v>0.02811361805530859</v>
+      </c>
+      <c r="H92">
+        <v>-0.01827796516347635</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2840229130060551</v>
+        <v>0.335377347341069</v>
       </c>
       <c r="C93">
-        <v>-0.2462668661211861</v>
+        <v>0.1136765434971305</v>
       </c>
       <c r="D93">
-        <v>0.01541317943539846</v>
+        <v>0.01829947206370034</v>
       </c>
       <c r="E93">
-        <v>-1.103291400759037e-05</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.0255665540469206</v>
+      </c>
+      <c r="F93">
+        <v>-0.009135444400487379</v>
+      </c>
+      <c r="G93">
+        <v>-0.01429702936304606</v>
+      </c>
+      <c r="H93">
+        <v>0.005208300193653374</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2894459051695659</v>
+        <v>0.1248462800694232</v>
       </c>
       <c r="C94">
-        <v>0.2770599099712836</v>
+        <v>-0.3492452650854062</v>
       </c>
       <c r="D94">
-        <v>-0.3440701862201753</v>
+        <v>0.361048431830894</v>
       </c>
       <c r="E94">
-        <v>0.2170139617074089</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.06398049716935401</v>
+      </c>
+      <c r="F94">
+        <v>0.1046572221223433</v>
+      </c>
+      <c r="G94">
+        <v>0.3186096896537575</v>
+      </c>
+      <c r="H94">
+        <v>0.02938667988439046</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.0134987179698304</v>
+        <v>0.0176150841193353</v>
       </c>
       <c r="C95">
-        <v>0.03909022891014612</v>
+        <v>-0.06502419032253806</v>
       </c>
       <c r="D95">
-        <v>0.01416245677487424</v>
+        <v>-0.1078630090554791</v>
       </c>
       <c r="E95">
-        <v>-0.09527001923669717</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.1566197005037392</v>
+      </c>
+      <c r="F95">
+        <v>0.01874657353919501</v>
+      </c>
+      <c r="G95">
+        <v>-0.09776333748881744</v>
+      </c>
+      <c r="H95">
+        <v>-0.3300399369511158</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3190,71 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.001221830264384691</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.0007901511996502209</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>-0.0005122760691877791</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.003823934192172417</v>
+      </c>
+      <c r="F97">
+        <v>-0.0003606077068154517</v>
+      </c>
+      <c r="G97">
+        <v>0.000476191678615588</v>
+      </c>
+      <c r="H97">
+        <v>-0.004205631635918435</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1432924477436838</v>
+        <v>0.1153508009472525</v>
       </c>
       <c r="C98">
-        <v>0.09197556053638904</v>
+        <v>-0.1544077892190586</v>
       </c>
       <c r="D98">
-        <v>0.1526467499632683</v>
+        <v>-0.0585854484107729</v>
       </c>
       <c r="E98">
-        <v>0.1967408054915622</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.1975887890548124</v>
+      </c>
+      <c r="F98">
+        <v>0.246985899515454</v>
+      </c>
+      <c r="G98">
+        <v>-0.2776107853021112</v>
+      </c>
+      <c r="H98">
+        <v>0.1909619684580478</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3268,19 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3294,71 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.001288412238518881</v>
+        <v>0.001445990384077029</v>
       </c>
       <c r="C101">
-        <v>0.02009042024021934</v>
+        <v>-0.03559262185679488</v>
       </c>
       <c r="D101">
-        <v>0.09633581680040054</v>
+        <v>-0.1023456336237513</v>
       </c>
       <c r="E101">
-        <v>-0.01822420290389231</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.05947946692996187</v>
+      </c>
+      <c r="F101">
+        <v>-0.03798237400329166</v>
+      </c>
+      <c r="G101">
+        <v>-0.01124899232549124</v>
+      </c>
+      <c r="H101">
+        <v>-0.1366797564913944</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1032160267442277</v>
+        <v>0.02792622382985916</v>
       </c>
       <c r="C102">
-        <v>0.1609255302473794</v>
+        <v>-0.1490623127465801</v>
       </c>
       <c r="D102">
-        <v>-0.06277814404715661</v>
+        <v>0.09822326965678013</v>
       </c>
       <c r="E102">
-        <v>0.05004148448138417</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03866459957581817</v>
+      </c>
+      <c r="F102">
+        <v>0.06146256314970529</v>
+      </c>
+      <c r="G102">
+        <v>-0.005748127039364496</v>
+      </c>
+      <c r="H102">
+        <v>-0.04913013125160396</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3372,19 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3396,15 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
